--- a/espn_scrapper/IPL/Kolkata Knight Riders/Dinesh Karthik .xlsx
+++ b/espn_scrapper/IPL/Kolkata Knight Riders/Dinesh Karthik .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -927,9 +927,219 @@
         <v>33.33</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve"> Oct 21 2020</v>
+      </c>
+      <c r="B16" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C16" t="str">
+        <v>RCB won by 8 wickets (with 39 balls remaining)</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="F16" t="str">
+        <v xml:space="preserve">Dinesh Karthik </v>
+      </c>
+      <c r="G16" t="str">
+        <v>4</v>
+      </c>
+      <c r="H16" t="str">
+        <v>14</v>
+      </c>
+      <c r="I16" t="str">
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve"> Oct 10 2020</v>
+      </c>
+      <c r="B17" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C17" t="str">
+        <v>KKR won by 2 runs</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F17" t="str">
+        <v xml:space="preserve">Dinesh Karthik </v>
+      </c>
+      <c r="G17" t="str">
+        <v>58</v>
+      </c>
+      <c r="H17" t="str">
+        <v>29</v>
+      </c>
+      <c r="I17" t="str">
+        <v>8</v>
+      </c>
+      <c r="J17" t="str">
+        <v>2</v>
+      </c>
+      <c r="K17" t="str">
+        <v>200.00</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve"> Oct 29 2020</v>
+      </c>
+      <c r="B18" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Super Kings won by 6 wickets</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F18" t="str">
+        <v xml:space="preserve">Dinesh Karthik </v>
+      </c>
+      <c r="G18" t="str">
+        <v>21</v>
+      </c>
+      <c r="H18" t="str">
+        <v>10</v>
+      </c>
+      <c r="I18" t="str">
+        <v>3</v>
+      </c>
+      <c r="J18" t="str">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <v>210.00</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve"> Sep 26 2020</v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C19" t="str">
+        <v>KKR won by 7 wickets (with 12 balls remaining)</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F19" t="str">
+        <v xml:space="preserve">Dinesh Karthik </v>
+      </c>
+      <c r="G19" t="str">
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <v>3</v>
+      </c>
+      <c r="I19" t="str">
+        <v>0</v>
+      </c>
+      <c r="J19" t="str">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve"> Oct 18 2020</v>
+      </c>
+      <c r="B20" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Match tied (KKR won the one-over eliminator)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F20" t="str">
+        <v xml:space="preserve">Dinesh Karthik </v>
+      </c>
+      <c r="G20" t="str">
+        <v>29</v>
+      </c>
+      <c r="H20" t="str">
+        <v>14</v>
+      </c>
+      <c r="I20" t="str">
+        <v>2</v>
+      </c>
+      <c r="J20" t="str">
+        <v>2</v>
+      </c>
+      <c r="K20" t="str">
+        <v>207.14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v xml:space="preserve"> Oct 16 2020</v>
+      </c>
+      <c r="B21" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Mumbai won by 8 wickets (with 19 balls remaining)</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F21" t="str">
+        <v xml:space="preserve">Dinesh Karthik </v>
+      </c>
+      <c r="G21" t="str">
+        <v>4</v>
+      </c>
+      <c r="H21" t="str">
+        <v>8</v>
+      </c>
+      <c r="I21" t="str">
+        <v>1</v>
+      </c>
+      <c r="J21" t="str">
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
+        <v>50.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K21"/>
   </ignoredErrors>
 </worksheet>
 </file>